--- a/2025 record.xlsx
+++ b/2025 record.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="聚會紀錄" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,47 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>星期</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>主題</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>讚美詩1</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>讚美詩2</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>弟兄人數</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>姊妹人數</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>慕道者人數</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>總人數</t>
+          <t>此程式用於記錄聚會的日期、星期、主題、讚美詩、弟兄人數、姊妹人數、慕道者人數和總人數。</t>
         </is>
       </c>
     </row>

--- a/2025 record.xlsx
+++ b/2025 record.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025年6月" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025年12月" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,4 +433,498 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>日期(MM/DD)</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>星期</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>主題</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>讚美詩1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>讚美詩2</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>主領</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>翻譯</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>弟兄人數</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>姊妹人數</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>慕道者人數</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>總人數</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025/06/06</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>一</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>我</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>jui</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>cheng</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025/06/06</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>一</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>我</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>jui</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>cheng</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025/06/06</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>一</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>我</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>沈</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>cheng</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>日期(MM/DD)</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>星期</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>主題</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>讚美詩1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>讚美詩2</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>主領</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>翻譯</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>弟兄人數</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>姊妹人數</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>慕道者人數</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>總人數</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025/12/06</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>五</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>沈</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>沈</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>楊</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025/12/12</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>五</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>沈</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>瑞</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025/12/12</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>五</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>沈</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>成</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>